--- a/public/doc/Format Impor Purchase Order.xlsx
+++ b/public/doc/Format Impor Purchase Order.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\mrp-new\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786DE239-6147-49E0-B38F-CBBA40A17A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED007F3-1A4F-40BC-A635-A4E7BBDB8433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A62E235-4F2B-4897-B488-2903B036ACA3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,51 +37,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Item Number</t>
   </si>
   <si>
-    <t>Purchase Order</t>
-  </si>
-  <si>
-    <t>tpqty</t>
-  </si>
-  <si>
-    <t>tpunit</t>
-  </si>
-  <si>
-    <t>tpsite</t>
-  </si>
-  <si>
-    <t>tpvendor</t>
-  </si>
-  <si>
-    <t>Old Number Format</t>
-  </si>
-  <si>
-    <t>Created Date and Time</t>
-  </si>
-  <si>
-    <t>tpstatus</t>
-  </si>
-  <si>
-    <t>delivery reminder</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Purchase Requisition</t>
-  </si>
-  <si>
-    <t>delivery date</t>
-  </si>
-  <si>
-    <t>Line Status</t>
-  </si>
-  <si>
-    <t>Supplier Name</t>
+    <t>Vendor account</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Purchase order</t>
+  </si>
+  <si>
+    <t>Line number</t>
+  </si>
+  <si>
+    <t>Purchase requisition</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Deliver remainder</t>
+  </si>
+  <si>
+    <t>Delivery date</t>
+  </si>
+  <si>
+    <t>Procurement category</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -462,34 +459,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445941B4-09C3-4B14-8030-69CA23B2B4DD}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -497,47 +494,50 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{445941B4-09C3-4B14-8030-69CA23B2B4DD}"/>
+  <autoFilter ref="A1:P1" xr:uid="{445941B4-09C3-4B14-8030-69CA23B2B4DD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/doc/Format Impor Purchase Order.xlsx
+++ b/public/doc/Format Impor Purchase Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\mrp-new\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED007F3-1A4F-40BC-A635-A4E7BBDB8433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B7F5F2-9780-46F2-BEFA-DF3DF0338B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A62E235-4F2B-4897-B488-2903B036ACA3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Item Number</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Part name</t>
+  </si>
+  <si>
+    <t>Part number</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,8 +482,8 @@
     <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -515,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
